--- a/stimuli_new.xlsx
+++ b/stimuli_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hening Wang\Documents\GitHub\huashan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C751BDF9-2C0E-49AE-A6B5-D4A29689C092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1561C1AC-0662-4C2A-8FD1-691E4915263E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="66">
   <si>
     <t>er</t>
   </si>
@@ -151,6 +151,87 @@
   </si>
   <si>
     <t>Klebezettel</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>quadrat</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>sentence_1</t>
+  </si>
+  <si>
+    <t>sentence_2</t>
+  </si>
+  <si>
+    <t>Ich nehme die große blaue Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die blaue große Sammelkarte.</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Ich nehme die große rhombusförmige Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die rhombusförmige große Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die blaue dreieckige Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die dreieckige blaue Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die große orange Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die orange große Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die große dreieckige Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die dreieckige große Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die blaue rhombusförmige Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die rhombusförmige blaue Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die orange rhombusförmige Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die rhombusförmige orange Sammelkarte.</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>Ich nehme den großen grauen Scherenschnitt.</t>
+  </si>
+  <si>
+    <t>Ich nehme den grauen großen Scherenschnitt .</t>
   </si>
 </sst>
 </file>
@@ -474,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X55"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X22" activeCellId="1" sqref="Y11 X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,10 +575,11 @@
     <col min="17" max="17" width="12.453125" style="1" customWidth="1"/>
     <col min="18" max="22" width="8.7265625" style="1"/>
     <col min="23" max="23" width="18.26953125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" style="1"/>
+    <col min="24" max="24" width="44.453125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="45.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -567,8 +649,14 @@
       <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -604,13 +692,13 @@
         <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>30</v>
@@ -619,28 +707,34 @@
         <v>31</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -673,37 +767,37 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>6</v>
@@ -711,8 +805,14 @@
       <c r="W3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -726,23 +826,23 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>30</v>
@@ -766,25 +866,31 @@
         <v>6</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -808,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -823,40 +929,46 @@
         <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -880,55 +992,61 @@
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -942,35 +1060,35 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>30</v>
@@ -979,7 +1097,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>6</v>
@@ -999,8 +1117,14 @@
       <c r="W7" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1018,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1027,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1039,10 +1163,10 @@
         <v>31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>31</v>
@@ -1051,28 +1175,34 @@
         <v>31</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1090,61 +1220,67 @@
         <v>10</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1158,29 +1294,29 @@
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>30</v>
@@ -1189,22 +1325,22 @@
         <v>30</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>6</v>
@@ -1215,8 +1351,14 @@
       <c r="W10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1230,11 +1372,71 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W11" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1248,11 +1450,71 @@
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="W12" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1266,11 +1528,71 @@
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="W13" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1284,11 +1606,71 @@
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W14" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1302,11 +1684,71 @@
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="W15" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1320,11 +1762,71 @@
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="W16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1338,11 +1840,71 @@
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W17" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1356,11 +1918,71 @@
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="W18" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1374,11 +1996,71 @@
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="W19" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1392,11 +2074,65 @@
       <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -1410,11 +2146,65 @@
       <c r="D21" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="W21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -1428,11 +2218,65 @@
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="W22" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1446,11 +2290,65 @@
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -1464,11 +2362,65 @@
       <c r="D24" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="W24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1482,11 +2434,65 @@
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="W25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -1500,11 +2506,65 @@
       <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1518,11 +2578,65 @@
       <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="W27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1536,11 +2650,65 @@
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="W28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -1554,11 +2722,29 @@
       <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
       <c r="W29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1572,11 +2758,29 @@
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
       <c r="W30" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -1590,11 +2794,29 @@
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -1608,6 +2830,24 @@
       <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
       <c r="W32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1626,6 +2866,24 @@
       <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E33" s="1">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
       <c r="W33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1644,6 +2902,24 @@
       <c r="D34" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1662,6 +2938,24 @@
       <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E35" s="1">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
       <c r="W35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1680,6 +2974,24 @@
       <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2</v>
+      </c>
       <c r="W36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1698,6 +3010,24 @@
       <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,6 +3046,24 @@
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
       <c r="W38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1734,6 +3082,24 @@
       <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E39" s="1">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
       <c r="W39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1752,6 +3118,24 @@
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1770,6 +3154,24 @@
       <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
       <c r="W41" s="1" t="s">
         <v>37</v>
       </c>
@@ -1788,6 +3190,24 @@
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E42" s="1">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2</v>
+      </c>
       <c r="W42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1806,6 +3226,24 @@
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W43" s="1" t="s">
         <v>37</v>
       </c>
@@ -1824,6 +3262,24 @@
       <c r="D44" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E44" s="1">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>10</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
       <c r="W44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1842,6 +3298,24 @@
       <c r="D45" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E45" s="1">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>10</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2</v>
+      </c>
       <c r="W45" s="1" t="s">
         <v>37</v>
       </c>
@@ -1860,6 +3334,24 @@
       <c r="D46" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W46" s="1" t="s">
         <v>37</v>
       </c>
@@ -1878,6 +3370,24 @@
       <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E47" s="1">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
       <c r="W47" s="1" t="s">
         <v>38</v>
       </c>
@@ -1896,6 +3406,24 @@
       <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E48" s="1">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2</v>
+      </c>
       <c r="W48" s="1" t="s">
         <v>38</v>
       </c>
@@ -1914,6 +3442,24 @@
       <c r="D49" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W49" s="1" t="s">
         <v>38</v>
       </c>
@@ -1932,6 +3478,24 @@
       <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E50" s="1">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1">
+        <v>10</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
       <c r="W50" s="1" t="s">
         <v>38</v>
       </c>
@@ -1950,6 +3514,24 @@
       <c r="D51" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E51" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <v>10</v>
+      </c>
+      <c r="I51" s="1">
+        <v>10</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2</v>
+      </c>
       <c r="W51" s="1" t="s">
         <v>38</v>
       </c>
@@ -1968,6 +3550,24 @@
       <c r="D52" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="W52" s="1" t="s">
         <v>38</v>
       </c>
@@ -1986,6 +3586,24 @@
       <c r="D53" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E53" s="1">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
       <c r="W53" s="1" t="s">
         <v>38</v>
       </c>
@@ -2004,6 +3622,24 @@
       <c r="D54" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1">
+        <v>10</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2</v>
+      </c>
       <c r="W54" s="1" t="s">
         <v>38</v>
       </c>
@@ -2021,6 +3657,24 @@
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="W55" s="1" t="s">
         <v>38</v>

--- a/stimuli_new.xlsx
+++ b/stimuli_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hening Wang\Documents\GitHub\huashan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1561C1AC-0662-4C2A-8FD1-691E4915263E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AF53C2-C174-46DF-BF99-FC735274382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="76">
   <si>
     <t>er</t>
   </si>
@@ -183,15 +183,6 @@
     <t>green</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>Ich nehme die große rhombusförmige Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die rhombusförmige große Sammelkarte.</t>
-  </si>
-  <si>
     <t>Ich nehme die blaue dreieckige Sammelkarte.</t>
   </si>
   <si>
@@ -210,18 +201,6 @@
     <t>Ich nehme die dreieckige große Sammelkarte.</t>
   </si>
   <si>
-    <t>Ich nehme die blaue rhombusförmige Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die rhombusförmige blaue Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die orange rhombusförmige Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die rhombusförmige orange Sammelkarte.</t>
-  </si>
-  <si>
     <t>star</t>
   </si>
   <si>
@@ -232,6 +211,57 @@
   </si>
   <si>
     <t>Ich nehme den grauen großen Scherenschnitt .</t>
+  </si>
+  <si>
+    <t>Ich nehme die große diamantförmige Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die diamantförmige große Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die blaue diamantförmige Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die diamantförmige blaue Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die orange diamantförmige Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme die diamantförmige orange Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme den großen quadratischen Scherenschnitt.</t>
+  </si>
+  <si>
+    <t>Ich nehme den quadratischen großen Scherenschnitt.</t>
+  </si>
+  <si>
+    <t>Ich nehme den brauen runden Scherenschnitt.</t>
+  </si>
+  <si>
+    <t>Ich nehme den runden braunen Scherenschnitt.</t>
+  </si>
+  <si>
+    <t>Ich nehme den grauen großen Scherenschnitt.</t>
+  </si>
+  <si>
+    <t>Ich nehme den braunen runden Sammelkarte.</t>
+  </si>
+  <si>
+    <t>Ich nehme den runden braunen Sammelkarte.</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>Keks</t>
+  </si>
+  <si>
+    <t>Puzzleteil</t>
+  </si>
+  <si>
+    <t>Papier</t>
   </si>
 </sst>
 </file>
@@ -267,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -275,11 +305,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -555,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X22" activeCellId="1" sqref="Y11 X22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,22 +793,28 @@
         <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
         <v>1</v>
       </c>
       <c r="G2" s="1">
+        <f t="shared" ref="G2:J17" ca="1" si="0">RANDBETWEEN(1, 3)</f>
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>30</v>
@@ -739,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f t="shared" ref="B3:B10" si="0">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="B3:B10" si="1">C3&amp;""&amp;D3</f>
         <v>erdf</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -749,22 +877,28 @@
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>39</v>
@@ -803,13 +937,13 @@
         <v>6</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
@@ -817,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ercf</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -880,14 +1014,14 @@
       <c r="V4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>33</v>
+      <c r="W4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
@@ -895,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>zrdc</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -905,21 +1039,27 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
+        <f t="shared" ref="E5:I9" ca="1" si="2">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="H5" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="I5" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="J5" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -958,14 +1098,14 @@
       <c r="V5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>33</v>
+      <c r="W5" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
@@ -973,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>zrdf</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -983,22 +1123,28 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="G6" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>39</v>
@@ -1037,13 +1183,13 @@
         <v>43</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
@@ -1051,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>zrcf</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1115,247 +1261,259 @@
         <v>6</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>brdc</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="Q8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
+    <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>brdf</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="W9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>brcf</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>61</v>
+      <c r="W10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
@@ -1373,40 +1531,46 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
       </c>
       <c r="F11" s="1">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="J11" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>39</v>
@@ -1427,13 +1591,13 @@
         <v>39</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
@@ -1441,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f t="shared" ref="B12:B19" si="1">C12&amp;""&amp;D12</f>
+        <f t="shared" ref="B12:B19" si="3">C12&amp;""&amp;D12</f>
         <v>erdf</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1451,21 +1615,27 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
       <c r="F12" s="1">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
         <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="J12" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -1508,10 +1678,10 @@
         <v>34</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
@@ -1519,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ercf</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1547,22 +1717,22 @@
         <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>7</v>
@@ -1582,14 +1752,14 @@
       <c r="V13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>34</v>
+      <c r="W13" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
@@ -1597,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>zrdc</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1607,40 +1777,46 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
+        <f t="shared" ref="E14:I18" ca="1" si="4">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="H14" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="I14" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>39</v>
@@ -1660,14 +1836,14 @@
       <c r="V14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>34</v>
+      <c r="W14" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
@@ -1675,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>zrdf</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1685,22 +1861,28 @@
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="F15" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="G15" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
       <c r="H15" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>39</v>
@@ -1721,31 +1903,31 @@
         <v>39</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="S15" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
@@ -1753,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>zrcf</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1781,1258 +1963,1684 @@
         <v>39</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>brdc</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>brdf</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" ref="G18:J18" ca="1" si="5">RANDBETWEEN(1, 3)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="V18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="W18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>brcf</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="R19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>brdc</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>brdf</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="T19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="U19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U18" s="1" t="s">
+      <c r="V19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>brcf</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="str">
+      <c r="W19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="str">
         <f>C20&amp;""&amp;D20</f>
         <v>erdc</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" ref="G20:J35" ca="1" si="6">RANDBETWEEN(1, 3)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="W20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f t="shared" ref="B21:B28" si="7">C21&amp;""&amp;D21</f>
+        <v>erdf</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="F21" s="3">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>ercf</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f t="shared" ref="B21:B28" si="2">C21&amp;""&amp;D21</f>
-        <v>erdf</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>zrdc</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ref="E23:I27" ca="1" si="8">RANDBETWEEN(9, 10)</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>zrdf</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ercf</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E24" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>zrcf</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>zrdc</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10</v>
-      </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>zrdf</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>brdc</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>brdf</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1">
-        <v>10</v>
-      </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>zrcf</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="E27" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>brcf</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>brdc</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>brdf</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="E28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="1">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2</v>
-      </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>brcf</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="4" t="str">
         <f>C29&amp;""&amp;D29</f>
         <v>erdc</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
+      <c r="D29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="F29" s="3">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="W29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f t="shared" ref="B30:B37" si="9">C30&amp;""&amp;D30</f>
+        <v>erdf</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="F30" s="3">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>ercf</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>zrdc</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>10</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" ref="E32:I36" ca="1" si="10">RANDBETWEEN(9, 10)</f>
+        <v>10</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W32" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>4</v>
       </c>
-      <c r="B30" s="2" t="str">
-        <f t="shared" ref="B30:B37" si="3">C30&amp;""&amp;D30</f>
-        <v>erdf</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="B33" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>zrdf</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="1">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1">
-        <v>2</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="E33" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>4</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ercf</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>zrcf</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="E34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
         <v>4</v>
       </c>
-      <c r="B32" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>zrdc</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1">
-        <v>10</v>
-      </c>
-      <c r="H32" s="1">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>brdc</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>4</v>
       </c>
-      <c r="B33" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>zrdf</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>brdf</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="1">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1">
-        <v>10</v>
-      </c>
-      <c r="H33" s="1">
-        <v>10</v>
-      </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
-        <v>2</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="E36" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" ref="G36:J36" ca="1" si="11">RANDBETWEEN(1, 3)</f>
+        <v>2</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>4</v>
       </c>
-      <c r="B34" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>zrcf</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>brcf</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>brdc</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
-        <v>1</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>brdf</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="1">
-        <v>10</v>
-      </c>
-      <c r="F36" s="1">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2</v>
-      </c>
-      <c r="H36" s="1">
-        <v>2</v>
-      </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
-        <v>2</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>brcf</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="E37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -3047,33 +3655,75 @@
         <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>3</v>
       </c>
       <c r="G38" s="1">
+        <f t="shared" ref="G38:J45" ca="1" si="12">RANDBETWEEN(1, 3)</f>
         <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>5</v>
       </c>
       <c r="B39" s="2" t="str">
-        <f t="shared" ref="B39:B46" si="4">C39&amp;""&amp;D39</f>
+        <f t="shared" ref="B39:B46" si="13">C39&amp;""&amp;D39</f>
         <v>erdf</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -3083,33 +3733,75 @@
         <v>4</v>
       </c>
       <c r="E39" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
       <c r="F39" s="1">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
         <v>2</v>
       </c>
       <c r="G39" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
+        <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
       <c r="I39" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
       </c>
       <c r="J39" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>5</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>ercf</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3136,16 +3828,52 @@
       <c r="J40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="K40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>5</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>zrdc</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3155,33 +3883,75 @@
         <v>3</v>
       </c>
       <c r="E41" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
       <c r="F41" s="1">
+        <f t="shared" ref="E41:I45" ca="1" si="14">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
       <c r="G41" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
       <c r="H41" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
       </c>
       <c r="I41" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>5</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>zrdf</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3191,33 +3961,75 @@
         <v>4</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
       <c r="F42" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
       <c r="G42" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
       </c>
       <c r="H42" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
       </c>
       <c r="I42" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
       <c r="J42" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>5</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>zrcf</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -3244,16 +4056,52 @@
       <c r="J43" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="K43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="W43" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>5</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>brdc</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3263,33 +4111,75 @@
         <v>3</v>
       </c>
       <c r="E44" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
       <c r="F44" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
       <c r="G44" s="1">
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="H44" s="1">
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="I44" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>5</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>brdf</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -3299,33 +4189,75 @@
         <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
       </c>
       <c r="F45" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
       <c r="G45" s="1">
+        <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
       <c r="H45" s="1">
+        <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
       <c r="I45" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
       <c r="J45" s="1">
-        <v>2</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>5</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>brcf</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3352,11 +4284,47 @@
       <c r="J46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W46" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="K46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>6</v>
       </c>
@@ -3371,33 +4339,75 @@
         <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>3</v>
       </c>
       <c r="G47" s="1">
+        <f t="shared" ref="G47:J62" ca="1" si="15">RANDBETWEEN(1, 3)</f>
         <v>1</v>
       </c>
       <c r="H47" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
       <c r="I47" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f t="shared" ref="B48:B55" si="5">C48&amp;""&amp;D48</f>
+        <f t="shared" ref="B48:B55" si="16">C48&amp;""&amp;D48</f>
         <v>erdf</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3407,25 +4417,67 @@
         <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
       </c>
       <c r="H48" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
       </c>
       <c r="I48" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
       </c>
       <c r="J48" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.35">
@@ -3433,7 +4485,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>ercf</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -3460,8 +4512,44 @@
       <c r="J49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W49" s="1" t="s">
-        <v>38</v>
+      <c r="K49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.35">
@@ -3469,7 +4557,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>zrdc</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3479,25 +4567,67 @@
         <v>3</v>
       </c>
       <c r="E50" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
       <c r="F50" s="1">
-        <v>10</v>
+        <f t="shared" ref="E50:I54" ca="1" si="17">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
       </c>
       <c r="G50" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
       </c>
       <c r="H50" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>10</v>
       </c>
       <c r="I50" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>10</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>38</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.35">
@@ -3505,7 +4635,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>zrdf</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3515,25 +4645,67 @@
         <v>4</v>
       </c>
       <c r="E51" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>10</v>
       </c>
       <c r="F51" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>10</v>
       </c>
       <c r="G51" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
       </c>
       <c r="H51" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
       </c>
       <c r="I51" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
       </c>
       <c r="J51" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.35">
@@ -3541,7 +4713,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>zrcf</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -3567,6 +4739,42 @@
       </c>
       <c r="J52" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="W52" s="1" t="s">
         <v>38</v>
@@ -3577,7 +4785,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>brdc</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3587,25 +4795,67 @@
         <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
       </c>
       <c r="F53" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>10</v>
       </c>
       <c r="G53" s="1">
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="H53" s="1">
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="I53" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.35">
@@ -3613,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>brdf</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3623,25 +4873,67 @@
         <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
       </c>
       <c r="F54" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>10</v>
       </c>
       <c r="G54" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
       </c>
       <c r="I54" s="1">
+        <f t="shared" ca="1" si="17"/>
         <v>10</v>
       </c>
       <c r="J54" s="1">
-        <v>2</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>38</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.35">
@@ -3649,7 +4941,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>brcf</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3676,12 +4968,2196 @@
       <c r="J55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="K55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>7</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f>C56&amp;""&amp;D56</f>
+        <v>erdc</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="F56" s="1">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>3</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f t="shared" ref="B57:B64" si="18">C57&amp;""&amp;D57</f>
+        <v>erdf</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="F57" s="1">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>7</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>ercf</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>zrdc</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" ref="E59:I63" ca="1" si="19">RANDBETWEEN(9, 10)</f>
+        <v>10</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>7</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>zrdf</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>zrcf</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W61" s="1" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>7</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>brdc</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>brdf</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" ref="G63:J63" ca="1" si="20">RANDBETWEEN(1, 3)</f>
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W63" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>7</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>brcf</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W64" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f>C65&amp;""&amp;D65</f>
+        <v>erdc</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>10</v>
+      </c>
+      <c r="F65" s="1">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>3</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" ref="G65:J72" ca="1" si="21">RANDBETWEEN(1, 3)</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f t="shared" ref="B66:B73" si="22">C66&amp;""&amp;D66</f>
+        <v>erdf</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="F66" s="1">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>3</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>ercf</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W67" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>zrdc</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>10</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" ref="E68:I72" ca="1" si="23">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W68" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>zrdf</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>zrcf</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>brdc</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>brdf</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>brcf</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>9</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <f>C74&amp;""&amp;D74</f>
+        <v>erdc</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>10</v>
+      </c>
+      <c r="F74" s="1">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>2</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" ref="G74:J81" ca="1" si="24">RANDBETWEEN(1, 3)</f>
+        <v>1</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>9</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <f t="shared" ref="B75:B82" si="25">C75&amp;""&amp;D75</f>
+        <v>erdf</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="F75" s="1">
+        <f ca="1">RANDBETWEEN(1, 3)</f>
+        <v>3</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>9</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>ercf</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>9</v>
+      </c>
+      <c r="B77" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>zrdc</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1">
+        <f ca="1">RANDBETWEEN(9, 10)</f>
+        <v>10</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" ref="E77:I81" ca="1" si="26">RANDBETWEEN(9, 10)</f>
+        <v>9</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>9</v>
+      </c>
+      <c r="B78" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>zrdf</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>9</v>
+      </c>
+      <c r="B79" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>zrcf</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>9</v>
+      </c>
+      <c r="B80" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>brdc</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>brdf</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>9</v>
+      </c>
+      <c r="B82" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>brcf</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W82" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:Y55">
+    <cfRule type="expression" dxfId="11" priority="22">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="23">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="10" priority="21">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:J64">
+    <cfRule type="expression" dxfId="9" priority="19">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:J73">
+    <cfRule type="expression" dxfId="8" priority="17">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:J82">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="16">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P64">
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="14">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:P73">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74:P82">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q56:V82">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W56:W64">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W65:W73">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W74:W82">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I44" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/stimuli_new.xlsx
+++ b/stimuli_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hening Wang\Documents\GitHub\huashan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AF53C2-C174-46DF-BF99-FC735274382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D519D6-1EA6-4AA6-B436-EC9BD7EEB270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="83">
   <si>
     <t>er</t>
   </si>
@@ -183,18 +183,6 @@
     <t>green</t>
   </si>
   <si>
-    <t>Ich nehme die blaue dreieckige Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die dreieckige blaue Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die große orange Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die orange große Sammelkarte.</t>
-  </si>
-  <si>
     <t>Ich nehme die große dreieckige Sammelkarte.</t>
   </si>
   <si>
@@ -210,27 +198,6 @@
     <t>Ich nehme den großen grauen Scherenschnitt.</t>
   </si>
   <si>
-    <t>Ich nehme den grauen großen Scherenschnitt .</t>
-  </si>
-  <si>
-    <t>Ich nehme die große diamantförmige Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die diamantförmige große Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die blaue diamantförmige Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die diamantförmige blaue Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die orange diamantförmige Sammelkarte.</t>
-  </si>
-  <si>
-    <t>Ich nehme die diamantförmige orange Sammelkarte.</t>
-  </si>
-  <si>
     <t>Ich nehme den großen quadratischen Scherenschnitt.</t>
   </si>
   <si>
@@ -255,20 +222,74 @@
     <t>magenta</t>
   </si>
   <si>
-    <t>Keks</t>
-  </si>
-  <si>
     <t>Puzzleteil</t>
   </si>
   <si>
     <t>Papier</t>
+  </si>
+  <si>
+    <t>Ich nehme den diamantförmigen großen  Scherenschnitt.</t>
+  </si>
+  <si>
+    <t>Ich nehme den großen diamantförmigen Scherenschnitt.</t>
+  </si>
+  <si>
+    <t>Ich nehme den blauen dreieckigen Kühlschrankmagnet.</t>
+  </si>
+  <si>
+    <t>Ich nehme den  dreieckigen blauen Kühlschrankmagnet.</t>
+  </si>
+  <si>
+    <t>Ich nehme die große orange Flagge.</t>
+  </si>
+  <si>
+    <t>Ich nehme die orange große Flagge.</t>
+  </si>
+  <si>
+    <t>Ich nehme das blaue diamantförmige Klebezettel.</t>
+  </si>
+  <si>
+    <t>Ich nehme das diamantförmige blaue Klebezettel.</t>
+  </si>
+  <si>
+    <t>Karton</t>
+  </si>
+  <si>
+    <t>Ich nehme den großen blauen Karton.</t>
+  </si>
+  <si>
+    <t>Ich nehme das blauen großen Karton.</t>
+  </si>
+  <si>
+    <t>Ich nehme das große dreieckige Puzzelteil.</t>
+  </si>
+  <si>
+    <t>Ich nehme das dreieckige große Puzzelteil.</t>
+  </si>
+  <si>
+    <t>Ich nehme das orange diamantförmige Papier.</t>
+  </si>
+  <si>
+    <t>Ich nehme das diamantförmige orange Papier.</t>
+  </si>
+  <si>
+    <t>Ich nehme den großen blauen Scherenschnitt.</t>
+  </si>
+  <si>
+    <t>Ich nehme den blauen großen Scherenschnitt.</t>
+  </si>
+  <si>
+    <t>Ich nehme den großen quadratischen Kühlschrankmagenet.</t>
+  </si>
+  <si>
+    <t>Ich nehme den quadratischen großen Kühlschrankmagenet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,16 +297,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -293,11 +327,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -312,11 +362,204 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -679,29 +922,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="12.90625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="6" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="1"/>
     <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16" width="8.7265625" style="1"/>
-    <col min="17" max="17" width="12.453125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="8.7265625" style="6"/>
+    <col min="12" max="16" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="12.453125" style="6" customWidth="1"/>
     <col min="18" max="22" width="8.7265625" style="1"/>
     <col min="23" max="23" width="18.26953125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="44.453125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="45.7265625" customWidth="1"/>
+    <col min="24" max="24" width="49.81640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="49.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -714,7 +959,7 @@
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -732,7 +977,7 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -750,7 +995,7 @@
       <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -778,7 +1023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -792,21 +1037,21 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:J17" ca="1" si="0">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -814,9 +1059,9 @@
       </c>
       <c r="J2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -834,7 +1079,7 @@
       <c r="P2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -862,7 +1107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -876,31 +1121,31 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
       <c r="F3" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -918,7 +1163,7 @@
       <c r="P3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -940,13 +1185,13 @@
         <v>34</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -960,7 +1205,7 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -978,7 +1223,7 @@
       <c r="J4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -996,7 +1241,7 @@
       <c r="P4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -1018,13 +1263,13 @@
         <v>35</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1038,7 +1283,7 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
@@ -1048,21 +1293,21 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1080,7 +1325,7 @@
       <c r="P5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -1102,13 +1347,13 @@
         <v>36</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1122,17 +1367,17 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -1140,13 +1385,13 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1164,7 +1409,7 @@
       <c r="P6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -1186,13 +1431,13 @@
         <v>37</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1206,7 +1451,7 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1224,7 +1469,7 @@
       <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1242,7 +1487,7 @@
       <c r="P7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1264,13 +1509,13 @@
         <v>38</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1284,31 +1529,31 @@
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1326,7 +1571,7 @@
       <c r="P8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -1345,16 +1590,16 @@
         <v>39</v>
       </c>
       <c r="W8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="Y8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1368,21 +1613,21 @@
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1392,7 +1637,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1410,7 +1655,7 @@
       <c r="P9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -1429,16 +1674,16 @@
         <v>43</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1452,7 +1697,7 @@
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1470,7 +1715,7 @@
       <c r="J10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -1488,7 +1733,7 @@
       <c r="P10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="R10" s="3" t="s">
@@ -1507,16 +1752,16 @@
         <v>6</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1530,13 +1775,13 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -1544,17 +1789,17 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1572,7 +1817,7 @@
       <c r="P11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -1591,16 +1836,16 @@
         <v>39</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1614,13 +1859,13 @@
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
       <c r="F12" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -1628,17 +1873,17 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -1656,7 +1901,7 @@
       <c r="P12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -1674,17 +1919,17 @@
       <c r="V12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>34</v>
+      <c r="W12" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1698,7 +1943,7 @@
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1716,7 +1961,7 @@
       <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1734,7 +1979,7 @@
       <c r="P13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1753,16 +1998,16 @@
         <v>42</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1776,9 +2021,9 @@
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="E14:I18" ca="1" si="4">RANDBETWEEN(9, 10)</f>
@@ -1786,7 +2031,7 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -1798,9 +2043,9 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -1818,7 +2063,7 @@
       <c r="P14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -1836,17 +2081,17 @@
       <c r="V14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>36</v>
+      <c r="W14" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1860,17 +2105,17 @@
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -1884,7 +2129,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -1902,7 +2147,7 @@
       <c r="P15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -1921,16 +2166,16 @@
         <v>42</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1944,7 +2189,7 @@
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1962,7 +2207,7 @@
       <c r="J16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -1980,7 +2225,7 @@
       <c r="P16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -1999,16 +2244,16 @@
         <v>7</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -2022,7 +2267,7 @@
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
         <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
@@ -2032,7 +2277,7 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -2046,7 +2291,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -2064,7 +2309,7 @@
       <c r="P17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R17" s="3" t="s">
@@ -2082,17 +2327,17 @@
       <c r="V17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>73</v>
+      <c r="W17" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -2106,7 +2351,7 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="6">
         <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
@@ -2116,11 +2361,11 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" ref="G18:J18" ca="1" si="5">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -2128,9 +2373,9 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -2148,7 +2393,7 @@
       <c r="P18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R18" s="3" t="s">
@@ -2167,16 +2412,16 @@
         <v>42</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -2190,7 +2435,7 @@
       <c r="D19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -2208,7 +2453,7 @@
       <c r="J19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -2226,7 +2471,7 @@
       <c r="P19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R19" s="3" t="s">
@@ -2244,17 +2489,17 @@
       <c r="V19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W19" s="3" t="s">
-        <v>75</v>
+      <c r="W19" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -2268,21 +2513,21 @@
       <c r="D20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="3">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" ref="G20:J35" ca="1" si="6">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -2292,7 +2537,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -2310,7 +2555,7 @@
       <c r="P20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R20" s="3" t="s">
@@ -2328,12 +2573,12 @@
       <c r="V20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>33</v>
+      <c r="W20" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -2347,31 +2592,31 @@
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -2389,30 +2634,30 @@
       <c r="P21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>55</v>
+      <c r="Q21" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -2426,7 +2671,7 @@
       <c r="D22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -2444,7 +2689,7 @@
       <c r="J22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -2462,30 +2707,30 @@
       <c r="P22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>56</v>
+      <c r="Q22" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -2499,13 +2744,13 @@
       <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="E23:I27" ca="1" si="8">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -2521,9 +2766,9 @@
       </c>
       <c r="J23" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -2541,7 +2786,7 @@
       <c r="P23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R23" s="3" t="s">
@@ -2559,12 +2804,12 @@
       <c r="V23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>36</v>
+      <c r="W23" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -2578,7 +2823,7 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="6">
         <f t="shared" ca="1" si="8"/>
         <v>9</v>
       </c>
@@ -2588,11 +2833,11 @@
       </c>
       <c r="G24" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -2600,9 +2845,9 @@
       </c>
       <c r="J24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -2620,30 +2865,30 @@
       <c r="P24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>56</v>
+      <c r="Q24" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -2657,7 +2902,7 @@
       <c r="D25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -2675,7 +2920,7 @@
       <c r="J25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -2693,30 +2938,30 @@
       <c r="P25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>55</v>
+      <c r="Q25" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>38</v>
+      <c r="W25" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -2730,7 +2975,7 @@
       <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="6">
         <f t="shared" ca="1" si="8"/>
         <v>10</v>
       </c>
@@ -2740,7 +2985,7 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -2752,9 +2997,9 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L26" s="3" t="s">
@@ -2772,7 +3017,7 @@
       <c r="P26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R26" s="3" t="s">
@@ -2790,12 +3035,12 @@
       <c r="V26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>73</v>
+      <c r="W26" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -2809,9 +3054,9 @@
       <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -2819,11 +3064,11 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -2831,9 +3076,9 @@
       </c>
       <c r="J27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -2851,30 +3096,30 @@
       <c r="P27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>56</v>
+      <c r="Q27" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>74</v>
+      <c r="W27" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -2888,7 +3133,7 @@
       <c r="D28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -2906,7 +3151,7 @@
       <c r="J28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -2924,30 +3169,30 @@
       <c r="P28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q28" s="3" t="s">
-        <v>55</v>
+      <c r="Q28" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W28" s="3" t="s">
-        <v>75</v>
+      <c r="W28" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -2961,21 +3206,21 @@
       <c r="D29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -2985,7 +3230,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -3003,7 +3248,7 @@
       <c r="P29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R29" s="1" t="s">
@@ -3021,12 +3266,12 @@
       <c r="V29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W29" s="1" t="s">
-        <v>33</v>
+      <c r="W29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -3040,17 +3285,17 @@
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
       <c r="F30" s="3">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -3064,7 +3309,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -3082,7 +3327,7 @@
       <c r="P30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="6" t="s">
         <v>43</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -3101,11 +3346,11 @@
         <v>6</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -3119,7 +3364,7 @@
       <c r="D31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -3137,7 +3382,7 @@
       <c r="J31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -3155,7 +3400,7 @@
       <c r="P31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R31" s="1" t="s">
@@ -3173,12 +3418,12 @@
       <c r="V31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="3" t="s">
-        <v>35</v>
+      <c r="W31" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -3192,17 +3437,17 @@
       <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" ref="E32:I36" ca="1" si="10">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -3210,13 +3455,13 @@
       </c>
       <c r="I32" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="K32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -3234,7 +3479,7 @@
       <c r="P32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R32" s="1" t="s">
@@ -3252,12 +3497,12 @@
       <c r="V32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>36</v>
+      <c r="W32" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -3271,13 +3516,13 @@
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="6">
         <f t="shared" ca="1" si="10"/>
         <v>9</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -3285,7 +3530,7 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -3295,7 +3540,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -3313,7 +3558,7 @@
       <c r="P33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R33" s="1" t="s">
@@ -3331,12 +3576,12 @@
       <c r="V33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W33" s="1" t="s">
-        <v>37</v>
+      <c r="W33" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -3350,7 +3595,7 @@
       <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -3368,7 +3613,7 @@
       <c r="J34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -3386,7 +3631,7 @@
       <c r="P34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="Q34" s="6" t="s">
         <v>43</v>
       </c>
       <c r="R34" s="1" t="s">
@@ -3404,12 +3649,12 @@
       <c r="V34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W34" s="1" t="s">
-        <v>38</v>
+      <c r="W34" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -3423,17 +3668,17 @@
       <c r="D35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="6">
         <f t="shared" ca="1" si="10"/>
         <v>9</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -3445,9 +3690,9 @@
       </c>
       <c r="J35" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L35" s="3" t="s">
@@ -3465,7 +3710,7 @@
       <c r="P35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R35" s="3" t="s">
@@ -3484,11 +3729,11 @@
         <v>39</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -3502,7 +3747,7 @@
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="6">
         <f t="shared" ca="1" si="10"/>
         <v>9</v>
       </c>
@@ -3512,7 +3757,7 @@
       </c>
       <c r="G36" s="3">
         <f t="shared" ref="G36:J36" ca="1" si="11">RANDBETWEEN(1, 3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" ca="1" si="11"/>
@@ -3520,13 +3765,13 @@
       </c>
       <c r="I36" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="K36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L36" s="3" t="s">
@@ -3544,7 +3789,7 @@
       <c r="P36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R36" s="3" t="s">
@@ -3562,12 +3807,12 @@
       <c r="V36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W36" s="3" t="s">
-        <v>74</v>
+      <c r="W36" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -3581,7 +3826,7 @@
       <c r="D37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -3599,7 +3844,7 @@
       <c r="J37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L37" s="3" t="s">
@@ -3617,7 +3862,7 @@
       <c r="P37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="6" t="s">
         <v>43</v>
       </c>
       <c r="R37" s="3" t="s">
@@ -3636,11 +3881,11 @@
         <v>6</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -3654,13 +3899,13 @@
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
       <c r="F38" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" ref="G38:J45" ca="1" si="12">RANDBETWEEN(1, 3)</f>
@@ -3672,13 +3917,13 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="K38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L38" s="1" t="s">
@@ -3696,7 +3941,7 @@
       <c r="P38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R38" s="1" t="s">
@@ -3715,10 +3960,10 @@
         <v>39</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -3732,31 +3977,31 @@
       <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
       <c r="F39" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -3774,7 +4019,7 @@
       <c r="P39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R39" s="1" t="s">
@@ -3793,10 +4038,10 @@
         <v>7</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -3810,7 +4055,7 @@
       <c r="D40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -3828,7 +4073,7 @@
       <c r="J40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L40" s="1" t="s">
@@ -3846,7 +4091,7 @@
       <c r="P40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R40" s="1" t="s">
@@ -3864,11 +4109,11 @@
       <c r="V40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W40" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -3882,13 +4127,13 @@
       <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ref="E41:I45" ca="1" si="14">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -3896,17 +4141,17 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L41" s="1" t="s">
@@ -3924,7 +4169,7 @@
       <c r="P41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R41" s="1" t="s">
@@ -3943,10 +4188,10 @@
         <v>39</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -3960,9 +4205,9 @@
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -3970,21 +4215,21 @@
       </c>
       <c r="G42" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L42" s="1" t="s">
@@ -4002,7 +4247,7 @@
       <c r="P42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R42" s="1" t="s">
@@ -4020,11 +4265,11 @@
       <c r="V42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W42" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="W42" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -4038,7 +4283,7 @@
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -4056,7 +4301,7 @@
       <c r="J43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L43" s="1" t="s">
@@ -4074,7 +4319,7 @@
       <c r="P43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R43" s="1" t="s">
@@ -4093,10 +4338,10 @@
         <v>7</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>5</v>
       </c>
@@ -4110,7 +4355,7 @@
       <c r="D44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="6">
         <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
@@ -4120,11 +4365,11 @@
       </c>
       <c r="G44" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -4132,9 +4377,9 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -4152,7 +4397,7 @@
       <c r="P44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R44" s="3" t="s">
@@ -4171,10 +4416,10 @@
         <v>39</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>5</v>
       </c>
@@ -4188,21 +4433,21 @@
       <c r="D45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="6">
         <f t="shared" ca="1" si="14"/>
         <v>9</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -4210,9 +4455,9 @@
       </c>
       <c r="J45" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L45" s="3" t="s">
@@ -4230,7 +4475,7 @@
       <c r="P45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R45" s="3" t="s">
@@ -4249,10 +4494,10 @@
         <v>42</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>5</v>
       </c>
@@ -4266,7 +4511,7 @@
       <c r="D46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -4284,7 +4529,7 @@
       <c r="J46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L46" s="3" t="s">
@@ -4302,7 +4547,7 @@
       <c r="P46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R46" s="3" t="s">
@@ -4321,10 +4566,10 @@
         <v>7</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>6</v>
       </c>
@@ -4338,21 +4583,21 @@
       <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" ref="G47:J62" ca="1" si="15">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="15"/>
@@ -4360,9 +4605,9 @@
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="K47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L47" s="1" t="s">
@@ -4380,7 +4625,7 @@
       <c r="P47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R47" s="3" t="s">
@@ -4399,10 +4644,10 @@
         <v>39</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>6</v>
       </c>
@@ -4416,7 +4661,7 @@
       <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
@@ -4434,13 +4679,13 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="K48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L48" s="1" t="s">
@@ -4458,29 +4703,29 @@
       <c r="P48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>55</v>
+      <c r="Q48" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>6</v>
       </c>
@@ -4494,7 +4739,7 @@
       <c r="D49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -4512,7 +4757,7 @@
       <c r="J49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L49" s="1" t="s">
@@ -4530,29 +4775,29 @@
       <c r="P49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>56</v>
+      <c r="Q49" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>6</v>
       </c>
@@ -4566,7 +4811,7 @@
       <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>10</v>
       </c>
@@ -4576,7 +4821,7 @@
       </c>
       <c r="G50" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -4584,13 +4829,13 @@
       </c>
       <c r="I50" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K50" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L50" s="1" t="s">
@@ -4608,7 +4853,7 @@
       <c r="P50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="Q50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R50" s="3" t="s">
@@ -4627,10 +4872,10 @@
         <v>39</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>6</v>
       </c>
@@ -4644,13 +4889,13 @@
       <c r="D51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="6">
         <f t="shared" ca="1" si="17"/>
         <v>10</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -4658,7 +4903,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -4666,9 +4911,9 @@
       </c>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K51" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L51" s="1" t="s">
@@ -4686,29 +4931,29 @@
       <c r="P51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q51" s="3" t="s">
-        <v>56</v>
+      <c r="Q51" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>6</v>
       </c>
@@ -4722,7 +4967,7 @@
       <c r="D52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -4740,7 +4985,7 @@
       <c r="J52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L52" s="1" t="s">
@@ -4758,29 +5003,29 @@
       <c r="P52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>55</v>
+      <c r="Q52" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>6</v>
       </c>
@@ -4794,7 +5039,7 @@
       <c r="D53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="6">
         <f t="shared" ca="1" si="17"/>
         <v>9</v>
       </c>
@@ -4804,11 +5049,11 @@
       </c>
       <c r="G53" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -4816,9 +5061,9 @@
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="K53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L53" s="3" t="s">
@@ -4836,7 +5081,7 @@
       <c r="P53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q53" s="3" t="s">
+      <c r="Q53" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R53" s="3" t="s">
@@ -4854,11 +5099,11 @@
       <c r="V53" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W53" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W53" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -4872,9 +5117,9 @@
       <c r="D54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -4882,11 +5127,11 @@
       </c>
       <c r="G54" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" ca="1" si="17"/>
@@ -4894,9 +5139,9 @@
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="K54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L54" s="3" t="s">
@@ -4914,29 +5159,29 @@
       <c r="P54" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>56</v>
+      <c r="Q54" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>43</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>6</v>
       </c>
@@ -4950,7 +5195,7 @@
       <c r="D55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -4968,7 +5213,7 @@
       <c r="J55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L55" s="3" t="s">
@@ -4986,29 +5231,29 @@
       <c r="P55" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q55" s="3" t="s">
-        <v>55</v>
+      <c r="Q55" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V55" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W55" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W55" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>7</v>
       </c>
@@ -5022,7 +5267,7 @@
       <c r="D56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
@@ -5032,7 +5277,7 @@
       </c>
       <c r="G56" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" ca="1" si="15"/>
@@ -5044,27 +5289,27 @@
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="Q56" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R56" s="1" t="s">
@@ -5083,10 +5328,10 @@
         <v>39</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>7</v>
       </c>
@@ -5100,31 +5345,31 @@
       <c r="D57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
       <c r="F57" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L57" s="3" t="s">
@@ -5142,7 +5387,7 @@
       <c r="P57" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="Q57" s="6" t="s">
         <v>43</v>
       </c>
       <c r="R57" s="1" t="s">
@@ -5160,11 +5405,11 @@
       <c r="V57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W57" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W57" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -5178,7 +5423,7 @@
       <c r="D58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -5196,8 +5441,8 @@
       <c r="J58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>72</v>
+      <c r="K58" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>48</v>
@@ -5214,7 +5459,7 @@
       <c r="P58" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="Q58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R58" s="1" t="s">
@@ -5233,10 +5478,10 @@
         <v>43</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>7</v>
       </c>
@@ -5250,13 +5495,13 @@
       <c r="D59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" ref="E59:I63" ca="1" si="19">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -5272,27 +5517,27 @@
       </c>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>48</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q59" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R59" s="1" t="s">
@@ -5310,11 +5555,11 @@
       <c r="V59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>7</v>
       </c>
@@ -5328,13 +5573,13 @@
       <c r="D60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -5342,17 +5587,17 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K60" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L60" s="3" t="s">
@@ -5370,7 +5615,7 @@
       <c r="P60" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="Q60" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R60" s="1" t="s">
@@ -5389,10 +5634,10 @@
         <v>43</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>7</v>
       </c>
@@ -5406,7 +5651,7 @@
       <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -5424,25 +5669,25 @@
       <c r="J61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K61" s="3" t="s">
-        <v>72</v>
+      <c r="K61" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="Q61" s="6" t="s">
         <v>43</v>
       </c>
       <c r="R61" s="1" t="s">
@@ -5460,11 +5705,11 @@
       <c r="V61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W61" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W61" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>7</v>
       </c>
@@ -5478,9 +5723,9 @@
       <c r="D62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -5492,7 +5737,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -5500,19 +5745,19 @@
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>48</v>
@@ -5520,7 +5765,7 @@
       <c r="P62" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R62" s="3" t="s">
@@ -5538,11 +5783,11 @@
       <c r="V62" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W62" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W62" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>7</v>
       </c>
@@ -5556,7 +5801,7 @@
       <c r="D63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="6">
         <f t="shared" ca="1" si="19"/>
         <v>10</v>
       </c>
@@ -5566,11 +5811,11 @@
       </c>
       <c r="G63" s="1">
         <f t="shared" ref="G63:J63" ca="1" si="20">RANDBETWEEN(1, 3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -5580,7 +5825,7 @@
         <f t="shared" ca="1" si="20"/>
         <v>3</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K63" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L63" s="3" t="s">
@@ -5598,7 +5843,7 @@
       <c r="P63" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q63" s="3" t="s">
+      <c r="Q63" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R63" s="3" t="s">
@@ -5616,11 +5861,11 @@
       <c r="V63" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W63" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W63" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>7</v>
       </c>
@@ -5634,7 +5879,7 @@
       <c r="D64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -5652,25 +5897,25 @@
       <c r="J64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" s="6" t="s">
         <v>48</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>48</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q64" s="6" t="s">
         <v>43</v>
       </c>
       <c r="R64" s="3" t="s">
@@ -5688,11 +5933,11 @@
       <c r="V64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W64" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>8</v>
       </c>
@@ -5706,21 +5951,21 @@
       <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" ref="G65:J72" ca="1" si="21">RANDBETWEEN(1, 3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" ca="1" si="21"/>
@@ -5728,27 +5973,27 @@
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="Q65" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R65" s="1" t="s">
@@ -5766,11 +6011,11 @@
       <c r="V65" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W65" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W65" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>8</v>
       </c>
@@ -5784,21 +6029,21 @@
       <c r="D66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
       <c r="F66" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" ca="1" si="21"/>
@@ -5806,9 +6051,9 @@
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L66" s="3" t="s">
@@ -5826,7 +6071,7 @@
       <c r="P66" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="Q66" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R66" s="1" t="s">
@@ -5844,11 +6089,11 @@
       <c r="V66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W66" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W66" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>8</v>
       </c>
@@ -5862,7 +6107,7 @@
       <c r="D67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -5880,8 +6125,8 @@
       <c r="J67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>72</v>
+      <c r="K67" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>48</v>
@@ -5898,7 +6143,7 @@
       <c r="P67" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="Q67" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R67" s="1" t="s">
@@ -5916,11 +6161,11 @@
       <c r="V67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W67" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>8</v>
       </c>
@@ -5934,9 +6179,9 @@
       <c r="D68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" ref="E68:I72" ca="1" si="23">RANDBETWEEN(9, 10)</f>
@@ -5944,7 +6189,7 @@
       </c>
       <c r="G68" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" ca="1" si="23"/>
@@ -5952,31 +6197,31 @@
       </c>
       <c r="I68" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="6" t="s">
         <v>48</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q68" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R68" s="1" t="s">
@@ -5994,11 +6239,11 @@
       <c r="V68" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W68" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W68" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>8</v>
       </c>
@@ -6012,7 +6257,7 @@
       <c r="D69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="6">
         <f t="shared" ca="1" si="23"/>
         <v>9</v>
       </c>
@@ -6022,11 +6267,11 @@
       </c>
       <c r="G69" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I69" s="1">
         <f t="shared" ca="1" si="23"/>
@@ -6034,9 +6279,9 @@
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="K69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L69" s="3" t="s">
@@ -6054,7 +6299,7 @@
       <c r="P69" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="Q69" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R69" s="1" t="s">
@@ -6072,11 +6317,11 @@
       <c r="V69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W69" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W69" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>8</v>
       </c>
@@ -6090,7 +6335,7 @@
       <c r="D70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -6108,25 +6353,25 @@
       <c r="J70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>72</v>
+      <c r="K70" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="Q70" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R70" s="1" t="s">
@@ -6144,11 +6389,11 @@
       <c r="V70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W70" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W70" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>8</v>
       </c>
@@ -6162,7 +6407,7 @@
       <c r="D71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="6">
         <f t="shared" ca="1" si="23"/>
         <v>9</v>
       </c>
@@ -6172,11 +6417,11 @@
       </c>
       <c r="G71" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I71" s="1">
         <f t="shared" ca="1" si="23"/>
@@ -6184,19 +6429,19 @@
       </c>
       <c r="J71" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>48</v>
@@ -6204,7 +6449,7 @@
       <c r="P71" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q71" s="3" t="s">
+      <c r="Q71" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R71" s="3" t="s">
@@ -6223,10 +6468,10 @@
         <v>39</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>8</v>
       </c>
@@ -6240,7 +6485,7 @@
       <c r="D72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="6">
         <f t="shared" ca="1" si="23"/>
         <v>10</v>
       </c>
@@ -6250,21 +6495,21 @@
       </c>
       <c r="G72" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="K72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L72" s="3" t="s">
@@ -6282,7 +6527,7 @@
       <c r="P72" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="Q72" s="6" t="s">
         <v>7</v>
       </c>
       <c r="R72" s="3" t="s">
@@ -6300,11 +6545,11 @@
       <c r="V72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W72" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>8</v>
       </c>
@@ -6318,7 +6563,7 @@
       <c r="D73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -6336,25 +6581,25 @@
       <c r="J73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="6" t="s">
         <v>48</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>48</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q73" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q73" s="6" t="s">
         <v>42</v>
       </c>
       <c r="R73" s="3" t="s">
@@ -6372,11 +6617,11 @@
       <c r="V73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W73" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>9</v>
       </c>
@@ -6390,13 +6635,13 @@
       <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" ref="G74:J81" ca="1" si="24">RANDBETWEEN(1, 3)</f>
@@ -6404,35 +6649,35 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
-      <c r="K74" s="3" t="s">
-        <v>72</v>
+      <c r="K74" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q74" s="3" t="s">
+      <c r="Q74" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R74" s="3" t="s">
@@ -6450,11 +6695,11 @@
       <c r="V74" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W74" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W74" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>9</v>
       </c>
@@ -6468,21 +6713,21 @@
       <c r="D75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
         <v>9</v>
       </c>
       <c r="F75" s="1">
         <f ca="1">RANDBETWEEN(1, 3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75" s="1">
         <f t="shared" ca="1" si="24"/>
@@ -6490,9 +6735,9 @@
       </c>
       <c r="J75" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="K75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K75" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L75" s="3" t="s">
@@ -6510,29 +6755,29 @@
       <c r="P75" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q75" s="3" t="s">
-        <v>55</v>
+      <c r="Q75" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>9</v>
       </c>
@@ -6546,7 +6791,7 @@
       <c r="D76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -6564,8 +6809,8 @@
       <c r="J76" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>72</v>
+      <c r="K76" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>48</v>
@@ -6582,29 +6827,29 @@
       <c r="P76" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>56</v>
+      <c r="Q76" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>9</v>
       </c>
@@ -6618,9 +6863,9 @@
       <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="6">
         <f ca="1">RANDBETWEEN(9, 10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" ref="E77:I81" ca="1" si="26">RANDBETWEEN(9, 10)</f>
@@ -6636,31 +6881,31 @@
       </c>
       <c r="I77" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="K77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>48</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q77" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q77" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R77" s="3" t="s">
@@ -6679,10 +6924,10 @@
         <v>39</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>9</v>
       </c>
@@ -6696,9 +6941,9 @@
       <c r="D78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="6">
         <f t="shared" ca="1" si="26"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" ca="1" si="26"/>
@@ -6710,17 +6955,17 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I78" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="K78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L78" s="3" t="s">
@@ -6738,29 +6983,29 @@
       <c r="P78" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q78" s="3" t="s">
-        <v>56</v>
+      <c r="Q78" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W78" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>9</v>
       </c>
@@ -6774,7 +7019,7 @@
       <c r="D79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -6792,47 +7037,47 @@
       <c r="J79" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K79" s="3" t="s">
-        <v>72</v>
+      <c r="K79" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q79" s="3" t="s">
-        <v>55</v>
+      <c r="Q79" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V79" s="3" t="s">
         <v>6</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>9</v>
       </c>
@@ -6846,17 +7091,17 @@
       <c r="D80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="6">
         <f t="shared" ca="1" si="26"/>
         <v>9</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="24"/>
@@ -6868,19 +7113,19 @@
       </c>
       <c r="J80" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>48</v>
@@ -6888,7 +7133,7 @@
       <c r="P80" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q80" s="3" t="s">
+      <c r="Q80" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R80" s="3" t="s">
@@ -6907,10 +7152,10 @@
         <v>39</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>9</v>
       </c>
@@ -6924,7 +7169,7 @@
       <c r="D81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="6">
         <f t="shared" ca="1" si="26"/>
         <v>10</v>
       </c>
@@ -6934,11 +7179,11 @@
       </c>
       <c r="G81" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" s="1">
         <f t="shared" ca="1" si="26"/>
@@ -6946,9 +7191,9 @@
       </c>
       <c r="J81" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K81" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L81" s="3" t="s">
@@ -6966,29 +7211,29 @@
       <c r="P81" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>56</v>
+      <c r="Q81" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U81" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W81" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -7002,7 +7247,7 @@
       <c r="D82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -7020,137 +7265,308 @@
       <c r="J82" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="K82" s="6" t="s">
         <v>48</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>48</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q82" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="Q82" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V82" s="3" t="s">
         <v>6</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y55">
-    <cfRule type="expression" dxfId="11" priority="22">
+  <conditionalFormatting sqref="A38:V55 W38:W45 X38:Y55 W47:W53 W56:W61 W65:W69 W74:W77 A1:Y37">
+    <cfRule type="expression" dxfId="38" priority="88">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="89">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:XFD1048576 W38:W45 W47:W53 W56:W61 W65:W69 A38:V82 X38:XFD82 W74:W77 A1:XFD37">
+    <cfRule type="expression" dxfId="37" priority="87">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:J64">
+    <cfRule type="expression" dxfId="36" priority="85">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="86">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:J73">
+    <cfRule type="expression" dxfId="35" priority="83">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="84">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:J82">
+    <cfRule type="expression" dxfId="34" priority="81">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="82">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:P64">
+    <cfRule type="expression" dxfId="33" priority="79">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="80">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:P73">
+    <cfRule type="expression" dxfId="32" priority="77">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="78">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74:P82">
+    <cfRule type="expression" dxfId="31" priority="75">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="76">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q56:V82">
+    <cfRule type="expression" dxfId="30" priority="73">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="74">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W46">
+    <cfRule type="expression" dxfId="29" priority="56">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="57">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W46">
+    <cfRule type="expression" dxfId="28" priority="55">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W54">
+    <cfRule type="expression" dxfId="27" priority="50">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="51">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W54">
+    <cfRule type="expression" dxfId="26" priority="49">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W55">
+    <cfRule type="expression" dxfId="25" priority="48">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W55">
+    <cfRule type="expression" dxfId="24" priority="46">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="47">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W62">
+    <cfRule type="expression" dxfId="23" priority="41">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="42">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W62">
+    <cfRule type="expression" dxfId="22" priority="40">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W63">
+    <cfRule type="expression" dxfId="21" priority="39">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W63">
+    <cfRule type="expression" dxfId="20" priority="37">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="38">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W64">
+    <cfRule type="expression" dxfId="19" priority="36">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W64">
+    <cfRule type="expression" dxfId="18" priority="34">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="35">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W70">
+    <cfRule type="expression" dxfId="17" priority="29">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="30">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W70">
+    <cfRule type="expression" dxfId="16" priority="28">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W71">
+    <cfRule type="expression" dxfId="15" priority="27">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W71">
+    <cfRule type="expression" dxfId="14" priority="25">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="26">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W72">
+    <cfRule type="expression" dxfId="13" priority="24">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W72">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
     <cfRule type="expression" priority="23">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="10" priority="21">
+  <conditionalFormatting sqref="W73">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:J64">
-    <cfRule type="expression" dxfId="9" priority="19">
+  <conditionalFormatting sqref="W73">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
     <cfRule type="expression" priority="20">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:J73">
-    <cfRule type="expression" dxfId="8" priority="17">
+  <conditionalFormatting sqref="W78">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
-    <cfRule type="expression" priority="18">
+    <cfRule type="expression" priority="15">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:J82">
-    <cfRule type="expression" dxfId="7" priority="15">
-      <formula>MOD(ROW(),9)=1</formula>
-    </cfRule>
-    <cfRule type="expression" priority="16">
+  <conditionalFormatting sqref="W78">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:P64">
-    <cfRule type="expression" dxfId="6" priority="13">
-      <formula>MOD(ROW(),9)=1</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14">
+  <conditionalFormatting sqref="W79">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:P73">
-    <cfRule type="expression" dxfId="5" priority="11">
+  <conditionalFormatting sqref="W79">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
-    <cfRule type="expression" priority="12">
+    <cfRule type="expression" priority="11">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:P82">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>MOD(ROW(),9)=1</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10">
+  <conditionalFormatting sqref="W80">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q56:V82">
-    <cfRule type="expression" dxfId="3" priority="7">
+  <conditionalFormatting sqref="W80">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
     <cfRule type="expression" priority="8">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W56:W64">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>MOD(ROW(),9)=1</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6">
+  <conditionalFormatting sqref="W81">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W65:W73">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="W81">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
-    <cfRule type="expression" priority="4">
+    <cfRule type="expression" priority="5">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W74:W82">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="W82">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
-    <cfRule type="expression" priority="2">
+    <cfRule type="expression" priority="3">
+      <formula>MOD(ROW(),9)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W82">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),9)=1</formula>
     </cfRule>
   </conditionalFormatting>
